--- a/data/trans_dic/P79_n_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P79_n_R2-Habitat-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02541362424533681</v>
+        <v>0.0247644448925989</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02142610171597035</v>
+        <v>0.02085828410762643</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0252328456836812</v>
+        <v>0.02605203789499288</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05851051055040889</v>
+        <v>0.05520783317411026</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04555901506234471</v>
+        <v>0.04591627786155427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04432469613039958</v>
+        <v>0.04509113809637738</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02779010974581138</v>
+        <v>0.02811149891918343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03551482670127597</v>
+        <v>0.03438132250354862</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03423730027382247</v>
+        <v>0.03424487353364265</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05424807041820451</v>
+        <v>0.05492561153413057</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06039251532748206</v>
+        <v>0.06102475682573522</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05315145844202681</v>
+        <v>0.05191139100759568</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.03706823021125368</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.03911638055975139</v>
+        <v>0.0391163805597514</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.03809812885791788</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02373010722494022</v>
+        <v>0.02360882157902588</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02709072280171698</v>
+        <v>0.02842170832335161</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02848423856077778</v>
+        <v>0.02904580389323644</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05754462505894444</v>
+        <v>0.05599505043898214</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05662669597157456</v>
+        <v>0.05886844845164087</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04974915714318465</v>
+        <v>0.04979292643330382</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03688464359404711</v>
+        <v>0.03699950388828123</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0327175668236846</v>
+        <v>0.03334228451500548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03736215735203227</v>
+        <v>0.03763641402052459</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06526422850505295</v>
+        <v>0.06540639035670491</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05567623581362528</v>
+        <v>0.0552872411439072</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05640299327935737</v>
+        <v>0.05602426377234454</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.04152075883530864</v>
+        <v>0.04152075883530863</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04045910578292512</v>
+        <v>0.04045910578292511</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.04097502241913239</v>
+        <v>0.04097502241913237</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03464574535480461</v>
+        <v>0.03472594801607191</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03506075438050197</v>
+        <v>0.03443670564577304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03652493271258254</v>
+        <v>0.03653239970017463</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04905539762495405</v>
+        <v>0.0489466009003074</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04737220145009059</v>
+        <v>0.04674736615273024</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04621879951915979</v>
+        <v>0.0461239848764024</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17553</v>
+        <v>17105</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>15731</v>
+        <v>15314</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35954</v>
+        <v>37121</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>40414</v>
+        <v>38133</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33449</v>
+        <v>33711</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>63158</v>
+        <v>64250</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>29150</v>
+        <v>29487</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>38053</v>
+        <v>36839</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>72596</v>
+        <v>72613</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>56902</v>
+        <v>57612</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>64709</v>
+        <v>65386</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>112702</v>
+        <v>110072</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>19057</v>
+        <v>18960</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>22005</v>
+        <v>23086</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>46012</v>
+        <v>46919</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46213</v>
+        <v>44968</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45996</v>
+        <v>47816</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>80361</v>
+        <v>80432</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>36518</v>
+        <v>36632</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36612</v>
+        <v>37311</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>78801</v>
+        <v>79379</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64616</v>
+        <v>64756</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>62304</v>
+        <v>61869</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>118960</v>
+        <v>118161</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>122395</v>
+        <v>122679</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>131020</v>
+        <v>128688</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>265526</v>
+        <v>265580</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>173301</v>
+        <v>172917</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>177028</v>
+        <v>174693</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>335998</v>
+        <v>335308</v>
       </c>
     </row>
     <row r="24">
